--- a/pivot table tutorial.xlsx
+++ b/pivot table tutorial.xlsx
@@ -1,31 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashut\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA ENGINEERING\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CC1A67-3CA4-4413-9334-361E8DB33875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BE2636-A556-4507-A930-E1FDB4FFFA25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5DA468A9-0C37-4B27-8690-311EC9CF4242}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{5DA468A9-0C37-4B27-8690-311EC9CF4242}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -537,22 +530,22 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -578,7 +571,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -605,7 +598,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -632,7 +625,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -659,7 +652,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -686,7 +679,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -713,7 +706,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -740,7 +733,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -767,7 +760,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -794,7 +787,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -821,7 +814,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -848,7 +841,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -875,7 +868,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -902,7 +895,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -929,7 +922,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -956,7 +949,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -983,7 +976,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1010,7 +1003,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1037,7 +1030,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1064,7 +1057,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1091,7 +1084,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1118,7 +1111,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1145,7 +1138,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1172,7 +1165,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1199,7 +1192,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1226,7 +1219,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -1253,7 +1246,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -1280,7 +1273,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
